--- a/plant_types_and_water.xlsx
+++ b/plant_types_and_water.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamieb/automatic_plant_watering/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788BF9AD-FD44-2248-A5AF-6C0375A0408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="224">
   <si>
     <t>Name</t>
   </si>
@@ -686,16 +692,13 @@
   </si>
   <si>
     <t>High demand</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +761,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -804,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,9 +847,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,6 +899,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1045,14 +1092,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1077,7 +1130,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1091,7 +1144,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1105,7 +1158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1119,7 +1172,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1133,7 +1186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1147,7 +1200,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1161,7 +1214,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1175,7 +1228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1189,7 +1242,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1203,7 +1256,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1217,7 +1270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1231,7 +1284,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1245,7 +1298,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1259,7 +1312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1273,7 +1326,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1287,7 +1340,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1301,7 +1354,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1315,7 +1368,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1329,7 +1382,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1343,7 +1396,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1357,7 +1410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1371,7 +1424,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1385,7 +1438,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1399,7 +1452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1413,7 +1466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1427,7 +1480,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1455,7 +1508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1469,7 +1522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1483,7 +1536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1497,7 +1550,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1511,7 +1564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1525,7 +1578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1539,7 +1592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1553,7 +1606,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1567,7 +1620,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1581,7 +1634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1595,7 +1648,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1609,7 +1662,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1623,7 +1676,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1637,7 +1690,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1651,7 +1704,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1665,7 +1718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1679,7 +1732,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1693,7 +1746,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1707,7 +1760,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1721,7 +1774,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1735,7 +1788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1749,7 +1802,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1763,7 +1816,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1777,7 +1830,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1791,7 +1844,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1805,7 +1858,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1819,7 +1872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1833,7 +1886,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1847,7 +1900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1861,7 +1914,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1875,7 +1928,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1889,7 +1942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1903,7 +1956,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1917,7 +1970,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1931,7 +1984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1945,7 +1998,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1959,7 +2012,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1973,7 +2026,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1987,7 +2040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1998,10 +2051,10 @@
         <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2015,7 +2068,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2026,10 +2079,10 @@
         <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2040,10 +2093,10 @@
         <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2054,10 +2107,10 @@
         <v>216</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2071,7 +2124,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2085,7 +2138,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2099,7 +2152,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2113,7 +2166,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2124,10 +2177,10 @@
         <v>216</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2141,7 +2194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2155,7 +2208,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2166,10 +2219,10 @@
         <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2183,7 +2236,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2194,10 +2247,10 @@
         <v>216</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2208,10 +2261,10 @@
         <v>216</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2222,10 +2275,10 @@
         <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2236,10 +2289,10 @@
         <v>216</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2250,10 +2303,10 @@
         <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2264,10 +2317,10 @@
         <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2281,7 +2334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2292,10 +2345,10 @@
         <v>216</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2306,10 +2359,10 @@
         <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2320,10 +2373,10 @@
         <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2337,7 +2390,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2351,7 +2404,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2365,7 +2418,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2376,10 +2429,10 @@
         <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2390,10 +2443,10 @@
         <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2404,10 +2457,10 @@
         <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2421,7 +2474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2435,7 +2488,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2446,10 +2499,10 @@
         <v>216</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2460,10 +2513,10 @@
         <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2474,10 +2527,10 @@
         <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2488,10 +2541,10 @@
         <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2505,7 +2558,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2516,10 +2569,10 @@
         <v>216</v>
       </c>
       <c r="D105" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2530,10 +2583,10 @@
         <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2544,10 +2597,10 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2561,7 +2614,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2572,10 +2625,10 @@
         <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2589,7 +2642,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2603,7 +2656,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2617,7 +2670,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2631,7 +2684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2645,7 +2698,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2659,7 +2712,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2673,7 +2726,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2687,7 +2740,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2701,7 +2754,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2715,7 +2768,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2729,7 +2782,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2743,7 +2796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2757,7 +2810,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2771,7 +2824,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2785,7 +2838,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2799,7 +2852,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2813,7 +2866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2827,7 +2880,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2841,7 +2894,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2855,7 +2908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2869,7 +2922,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2883,7 +2936,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2897,7 +2950,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2908,10 +2961,10 @@
         <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2925,7 +2978,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2939,7 +2992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2953,7 +3006,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2967,7 +3020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2981,7 +3034,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2995,7 +3048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3009,7 +3062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3023,7 +3076,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3037,7 +3090,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3051,7 +3104,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3065,7 +3118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3079,7 +3132,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3093,7 +3146,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3107,7 +3160,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3121,7 +3174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3135,7 +3188,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3149,7 +3202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3163,7 +3216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3177,7 +3230,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3191,7 +3244,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3205,7 +3258,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3219,7 +3272,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3233,7 +3286,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3247,7 +3300,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3258,10 +3311,10 @@
         <v>217</v>
       </c>
       <c r="D158" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3275,7 +3328,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3289,7 +3342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3303,7 +3356,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3317,7 +3370,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3331,7 +3384,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3345,7 +3398,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3359,7 +3412,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3373,7 +3426,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3387,7 +3440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3401,7 +3454,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3415,7 +3468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3429,7 +3482,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3443,7 +3496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3457,7 +3510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3471,7 +3524,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3485,7 +3538,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3499,7 +3552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3513,7 +3566,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3527,7 +3580,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3541,7 +3594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3555,7 +3608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3569,7 +3622,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3580,10 +3633,10 @@
         <v>218</v>
       </c>
       <c r="D181" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3597,7 +3650,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3608,10 +3661,10 @@
         <v>218</v>
       </c>
       <c r="D183" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3625,7 +3678,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3639,7 +3692,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3653,7 +3706,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3667,7 +3720,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3681,7 +3734,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3695,7 +3748,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3706,10 +3759,10 @@
         <v>218</v>
       </c>
       <c r="D190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3723,7 +3776,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3737,7 +3790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3748,10 +3801,10 @@
         <v>218</v>
       </c>
       <c r="D193" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3765,7 +3818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3779,7 +3832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3790,10 +3843,10 @@
         <v>218</v>
       </c>
       <c r="D196" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3807,7 +3860,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3821,7 +3874,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3832,10 +3885,10 @@
         <v>218</v>
       </c>
       <c r="D199" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3846,10 +3899,10 @@
         <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3860,10 +3913,10 @@
         <v>218</v>
       </c>
       <c r="D201" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3874,10 +3927,10 @@
         <v>218</v>
       </c>
       <c r="D202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3888,10 +3941,10 @@
         <v>218</v>
       </c>
       <c r="D203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3902,10 +3955,10 @@
         <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3916,10 +3969,10 @@
         <v>218</v>
       </c>
       <c r="D205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3933,7 +3986,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3944,10 +3997,10 @@
         <v>218</v>
       </c>
       <c r="D207" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3958,10 +4011,10 @@
         <v>218</v>
       </c>
       <c r="D208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3975,7 +4028,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3986,10 +4039,10 @@
         <v>218</v>
       </c>
       <c r="D210" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4000,10 +4053,10 @@
         <v>218</v>
       </c>
       <c r="D211" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4014,10 +4067,10 @@
         <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4028,10 +4081,10 @@
         <v>218</v>
       </c>
       <c r="D213" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4045,7 +4098,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4056,10 +4109,10 @@
         <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4070,10 +4123,10 @@
         <v>218</v>
       </c>
       <c r="D216" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4084,7 +4137,7 @@
         <v>218</v>
       </c>
       <c r="D217" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
